--- a/medicine/Enfance/Prix_Louise-LaHaye/Prix_Louise-LaHaye.xlsx
+++ b/medicine/Enfance/Prix_Louise-LaHaye/Prix_Louise-LaHaye.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Prix Louise-LaHaye est un prix littéraire québécois annuel[1].
-Ce prix reconnaît la richesse et la diversité des écritures des auteurs qui se consacrent à la dramaturgie jeune public. Il comprend une bourse de 10 000 $ octroyée au lauréat, qui devient également auteur associé de la Maison Théâtre durant un an[2].
-Pour être admissible à ce prix, l’auteur doit être canadien ou résident canadien. Il peut soumettre un ou plusieurs textes dramatiques écrits en français et destinés tant aux enfants qu’aux adolescents dans la mesure où les pièces ont été créées en version originale au Canada ou à l’étranger. Le producteur du spectacle doit être une compagnie professionnelle reconnue par le Centre des auteurs dramatiques ou par une association de compagnies de théâtre[3].
+Le Prix Louise-LaHaye est un prix littéraire québécois annuel.
+Ce prix reconnaît la richesse et la diversité des écritures des auteurs qui se consacrent à la dramaturgie jeune public. Il comprend une bourse de 10 000 $ octroyée au lauréat, qui devient également auteur associé de la Maison Théâtre durant un an.
+Pour être admissible à ce prix, l’auteur doit être canadien ou résident canadien. Il peut soumettre un ou plusieurs textes dramatiques écrits en français et destinés tant aux enfants qu’aux adolescents dans la mesure où les pièces ont été créées en version originale au Canada ou à l’étranger. Le producteur du spectacle doit être une compagnie professionnelle reconnue par le Centre des auteurs dramatiques ou par une association de compagnies de théâtre.
 Les textes collectifs et les adaptations théâtrales d’œuvres, appartenant initialement à un autre genre, sont admissibles. Dans le cas d’un collectif d’auteurs, toutes les règles d’admissibilité s’appliquent à chacun des membres.
 À partir de 2017, le texte gagnant est choisi parmi les œuvres destinées aux adolescents pour les années impaires, et parmi les œuvres destinées aux enfants pour les années paires.
 </t>
@@ -516,10 +528,12 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2008 - Daniel Danis, Kiwi[4]
-2009 - André Jean, Prière de ne pas déranger[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2008 - Daniel Danis, Kiwi
+2009 - André Jean, Prière de ne pas déranger
 2010 - Marie-Josée Bastien, Éclats et autres libertés
 2010 - Mathieu Gosselin, Éclats et autres libertés
 2010 - Étienne Lepage, Éclats et autres libertés
@@ -529,16 +543,16 @@
 2013 - Pascal Brullemans, Vipérine
 2014 - Jean-François Guilbault, Noyade(S)
 2014 -  Andréanne Joubert, Noyade(S)
-2015 - Pascal Brullemans, Moi et l'autre[6]
-2015 -  Talia Halmona, Moi et l'autre[7]
+2015 - Pascal Brullemans, Moi et l'autre
+2015 -  Talia Halmona, Moi et l'autre
 2016 - Étienne Lepage, Le cœur en hiver : pièce inspirée de La Reine des neiges d'Hans Christian Andersen
 2017 - Sébastien, David, Les haut-parleurs : théâtre
 2018 - Suzanne Lebeau, Trois petites soeurs
 2019 - Rébecca Déraspe, Je suis William : théâtre musical
-2020 - Érika Tremblay-Roy, Le problème avec le rose[8]
+2020 - Érika Tremblay-Roy, Le problème avec le rose
 2021 - Non attribué
-2022 - Olivier Sylvestre, Dans la forêt disparue[9]
-2023 - David Paquet, L'éveil du printemps [10]
+2022 - Olivier Sylvestre, Dans la forêt disparue
+2023 - David Paquet, L'éveil du printemps 
 </t>
         </is>
       </c>
